--- a/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/PHI KLINIK/2.4.3/PHI KLINIK accreditamento-checklist_V8.1.3.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/PHI KLINIK/2.4.3/PHI KLINIK accreditamento-checklist_V8.1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u01113\Desktop\GatewayInLocale\A1#111GRUPPOGPI00\GPI_SPA\PHI KLINIK\2.4.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6E1C77-6B68-41B0-9FF0-4F742A448CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9813A14B-538F-4E5A-ABA9-349DB046F04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4559,15 +4559,6 @@
 </t>
   </si>
   <si>
-    <t>2024-05-17T06:40:33.399Z</t>
-  </si>
-  <si>
-    <t>f020e3bb9466286c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a1e2ded57c628a025becb77d8cfcc3a6bf22442601ee442475ae96261afcd24c.f424c1890b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_PSS_CT0</t>
   </si>
   <si>
@@ -4755,6 +4746,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.a1e2ded57c628a025becb77d8cfcc3a6bf22442601ee442475ae96261afcd24c.047d4e8dbc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-24T06:10:09.944Z</t>
+  </si>
+  <si>
+    <t>d6a9f918d19010d5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a1e2ded57c628a025becb77d8cfcc3a6bf22442601ee442475ae96261afcd24c.34b30240b7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -5321,6 +5321,17 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -5339,17 +5350,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -7810,10 +7810,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H391" sqref="H391"/>
+      <selection pane="bottomRight" activeCell="I392" sqref="I392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -7851,12 +7851,12 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="56"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="61"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -7874,14 +7874,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="64" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="56"/>
+      <c r="D3" s="61"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -7899,12 +7899,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="60"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="64" t="s">
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="56"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -7923,12 +7923,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="64" t="s">
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="56"/>
+      <c r="D5" s="61"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -7946,8 +7946,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="65"/>
-      <c r="B6" s="66"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -9099,7 +9099,7 @@
         <v>124</v>
       </c>
       <c r="R39" s="26"/>
-      <c r="S39" s="67" t="s">
+      <c r="S39" s="55" t="s">
         <v>125</v>
       </c>
       <c r="T39" s="28" t="s">
@@ -9393,8 +9393,8 @@
         <v>124</v>
       </c>
       <c r="R47" s="26"/>
-      <c r="S47" s="67" t="s">
-        <v>903</v>
+      <c r="S47" s="55" t="s">
+        <v>900</v>
       </c>
       <c r="T47" s="28" t="s">
         <v>107</v>
@@ -13194,11 +13194,11 @@
       <c r="G158" s="29"/>
       <c r="H158" s="29"/>
       <c r="I158" s="29"/>
-      <c r="J158" s="68" t="s">
+      <c r="J158" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="K158" s="69" t="s">
-        <v>904</v>
+      <c r="K158" s="57" t="s">
+        <v>901</v>
       </c>
       <c r="L158" s="31"/>
       <c r="M158" s="31"/>
@@ -13608,13 +13608,13 @@
         <v>45435</v>
       </c>
       <c r="G167" s="29" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="H167" s="29" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="I167" s="29" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="J167" s="30" t="s">
         <v>121</v>
@@ -20978,13 +20978,13 @@
         <v>45429</v>
       </c>
       <c r="G381" s="23" t="s">
-        <v>844</v>
+        <v>905</v>
       </c>
       <c r="H381" s="29" t="s">
-        <v>845</v>
+        <v>906</v>
       </c>
       <c r="I381" s="29" t="s">
-        <v>846</v>
+        <v>907</v>
       </c>
       <c r="J381" s="44" t="s">
         <v>121</v>
@@ -21015,10 +21015,10 @@
         <v>110</v>
       </c>
       <c r="D382" s="21" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="E382" s="22" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="F382" s="23"/>
       <c r="G382" s="24"/>
@@ -21049,10 +21049,10 @@
         <v>48</v>
       </c>
       <c r="D383" s="21" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E383" s="22" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="F383" s="23"/>
       <c r="G383" s="24"/>
@@ -25795,10 +25795,10 @@
         <v>28</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1">
@@ -25806,13 +25806,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1">
@@ -25820,13 +25820,13 @@
         <v>60</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="C3" s="52" t="s">
         <v>853</v>
       </c>
-      <c r="C3" s="52" t="s">
-        <v>856</v>
-      </c>
       <c r="D3" s="52" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1">
@@ -25834,13 +25834,13 @@
         <v>69</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1">
@@ -25848,13 +25848,13 @@
         <v>78</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1">
@@ -25862,13 +25862,13 @@
         <v>87</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.5">
@@ -25876,13 +25876,13 @@
         <v>96</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.5">
@@ -25890,13 +25890,13 @@
         <v>115</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.5">
@@ -25904,27 +25904,27 @@
         <v>110</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="43.5">
       <c r="A10" s="11" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1">
@@ -25932,13 +25932,13 @@
         <v>48</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C11" s="52">
         <v>192</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" customHeight="1">
@@ -25946,13 +25946,13 @@
         <v>60</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C12" s="52">
         <v>208</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" customHeight="1">
@@ -25960,13 +25960,13 @@
         <v>69</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C13" s="52">
         <v>224</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" customHeight="1">
@@ -25974,13 +25974,13 @@
         <v>78</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C14" s="52">
         <v>240</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" customHeight="1">
@@ -25988,13 +25988,13 @@
         <v>87</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C15" s="52">
         <v>256</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25" customHeight="1">
@@ -26002,13 +26002,13 @@
         <v>96</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C16" s="52">
         <v>272</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1">
@@ -26016,13 +26016,13 @@
         <v>115</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C17" s="52">
         <v>288</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="13.5" customHeight="1">
@@ -26030,13 +26030,13 @@
         <v>110</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C18" s="52">
         <v>304</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1">
@@ -26044,13 +26044,13 @@
         <v>48</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C19" s="52">
         <v>193</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1">
@@ -26058,13 +26058,13 @@
         <v>60</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C20" s="52">
         <v>209</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1">
@@ -26072,13 +26072,13 @@
         <v>69</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C21" s="52">
         <v>225</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1">
@@ -26086,13 +26086,13 @@
         <v>78</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C22" s="52">
         <v>241</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1">
@@ -26100,13 +26100,13 @@
         <v>87</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C23" s="52">
         <v>257</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1">
@@ -26114,13 +26114,13 @@
         <v>96</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C24" s="52">
         <v>273</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1">
@@ -26128,13 +26128,13 @@
         <v>115</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C25" s="52">
         <v>289</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" customHeight="1">
@@ -26142,13 +26142,13 @@
         <v>110</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C26" s="52">
         <v>305</v>
       </c>
       <c r="D26" s="53" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1">
@@ -26156,13 +26156,13 @@
         <v>48</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C27" s="52">
         <v>194</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1">
@@ -26170,13 +26170,13 @@
         <v>60</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C28" s="52">
         <v>210</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" customHeight="1">
@@ -26184,13 +26184,13 @@
         <v>69</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C29" s="52">
         <v>226</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1">
@@ -26198,13 +26198,13 @@
         <v>78</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C30" s="52">
         <v>242</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1">
@@ -26212,13 +26212,13 @@
         <v>87</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C31" s="52">
         <v>258</v>
       </c>
       <c r="D31" s="53" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" customHeight="1">
@@ -26226,13 +26226,13 @@
         <v>96</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C32" s="52">
         <v>274</v>
       </c>
       <c r="D32" s="53" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1">
@@ -26240,13 +26240,13 @@
         <v>115</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C33" s="52">
         <v>290</v>
       </c>
       <c r="D33" s="53" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1">
@@ -26254,13 +26254,13 @@
         <v>110</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C34" s="52">
         <v>306</v>
       </c>
       <c r="D34" s="53" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1">
@@ -26268,7 +26268,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C35" s="52">
         <v>195</v>
@@ -26282,7 +26282,7 @@
         <v>60</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C36" s="52">
         <v>211</v>
@@ -26296,7 +26296,7 @@
         <v>69</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C37" s="52">
         <v>227</v>
@@ -26310,7 +26310,7 @@
         <v>78</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C38" s="52">
         <v>243</v>
@@ -26324,7 +26324,7 @@
         <v>87</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C39" s="52">
         <v>259</v>
@@ -26338,7 +26338,7 @@
         <v>96</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C40" s="52">
         <v>275</v>
@@ -26352,7 +26352,7 @@
         <v>115</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C41" s="52">
         <v>291</v>
@@ -26366,7 +26366,7 @@
         <v>110</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C42" s="52">
         <v>307</v>
@@ -26380,7 +26380,7 @@
         <v>48</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C43" s="52">
         <v>196</v>
@@ -26394,7 +26394,7 @@
         <v>60</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C44" s="52">
         <v>212</v>
@@ -26408,7 +26408,7 @@
         <v>69</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C45" s="52">
         <v>228</v>
@@ -26422,7 +26422,7 @@
         <v>78</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C46" s="52">
         <v>244</v>
@@ -26436,7 +26436,7 @@
         <v>87</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C47" s="52">
         <v>260</v>
@@ -26450,7 +26450,7 @@
         <v>96</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C48" s="52">
         <v>276</v>
@@ -26464,7 +26464,7 @@
         <v>115</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C49" s="52">
         <v>292</v>
@@ -26478,7 +26478,7 @@
         <v>110</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C50" s="52">
         <v>308</v>
@@ -27474,7 +27474,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>122</v>
